--- a/Processo/Avaliação/GRE-Avaliação Processo.xlsx
+++ b/Processo/Avaliação/GRE-Avaliação Processo.xlsx
@@ -423,7 +423,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -446,20 +446,6 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000D4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -470,6 +456,12 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -741,7 +733,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,22 +757,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,11 +774,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -813,177 +798,171 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Hyperlink 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_Consolidate Data 1" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -1062,9 +1041,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="160.908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="159.020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,37 +1064,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1150,712 +1136,712 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="105.295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="104.076530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="13.0918367346939"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="9" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="256" min="5" style="10" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="10" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="256" min="5" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
-      <c r="B50" s="28" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="25"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="25"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="28" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="25"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
-      <c r="B71" s="28" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="25"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24"/>
-      <c r="B78" s="28" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="25"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24"/>
-      <c r="B85" s="28" t="s">
+      <c r="A85" s="23"/>
+      <c r="B85" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="25"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="24"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24"/>
-      <c r="B92" s="28" t="s">
+      <c r="A92" s="23"/>
+      <c r="B92" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="108" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
